--- a/xlsx/FR/donation_agg_FR_inc.xlsx
+++ b/xlsx/FR/donation_agg_FR_inc.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">(Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donation to climate charity (in $)&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 to 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 to 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
   </si>
 </sst>
 </file>
@@ -377,64 +377,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.290663241196317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.275654209785302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.319835989790588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.411997320472878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.122663795465973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.145691482082868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.210331121312247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.117663552483849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B6" t="n">
+        <v>0.0565058522348763</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0489934351751036</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/donation_agg_FR_inc.xlsx
+++ b/xlsx/FR/donation_agg_FR_inc.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">(Top 50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Donation to climate charity (in $)&lt;br&gt;(Bottom 50%)</t>
+    <t xml:space="preserve">Donation to climate charity&lt;br&gt;(in % of max ~ 100$)&lt;br&gt;(Bottom 50%)</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -383,10 +383,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.290663241196317</v>
+        <v>0.282871869257953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.275654209785302</v>
+        <v>0.267873476957762</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.319835989790588</v>
+        <v>0.30363400665701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.411997320472878</v>
+        <v>0.409503199067558</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122663795465973</v>
+        <v>0.159348108396994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145691482082868</v>
+        <v>0.143317816669201</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210331121312247</v>
+        <v>0.195544550386193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.117663552483849</v>
+        <v>0.124797245810754</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0565058522348763</v>
+        <v>0.0586014653018498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0489934351751036</v>
+        <v>0.0545082614947252</v>
       </c>
     </row>
   </sheetData>
